--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -127,19 +121,25 @@
     <t>new</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -500,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>42</v>
@@ -569,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,31 +637,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>0.88</v>
+      </c>
+      <c r="L4">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>44</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L4">
-        <v>47</v>
-      </c>
-      <c r="M4">
-        <v>47</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9375</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0.8666666666666667</v>
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.7543859649122807</v>
@@ -769,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -819,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.6133333333333333</v>
+        <v>0.64</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,16 +890,16 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -937,31 +937,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -969,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5652173913043478</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1019,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5319148936170213</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.375</v>
@@ -1069,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.226775956284153</v>
+        <v>0.2358834244080146</v>
       </c>
       <c r="L13">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M13">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4571428571428571</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>0.2203389830508475</v>
@@ -1169,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.03519061583577713</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>329</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1219,175 +1219,179 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.1368421052631579</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.03765060240963856</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="L16">
-        <v>18</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C17">
+      <c r="K18">
+        <v>0.03148148148148148</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L20">
+        <v>29</v>
+      </c>
+      <c r="M20">
+        <v>29</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L21">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="M21">
         <v>13</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>65</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.03162650602409638</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0.08</v>
-      </c>
-      <c r="F18">
-        <v>0.92</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>286</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.01664532650448143</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>768</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>0.01209677419354839</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>21</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1715</v>
       </c>
     </row>
   </sheetData>
